--- a/铝/eta/1.铝_数据上传.xlsx
+++ b/铝/eta/1.铝_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12960" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>

--- a/铝/eta/1.铝_数据上传.xlsx
+++ b/铝/eta/1.铝_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12960" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1133,7 +1133,7 @@
         <v>45769</v>
       </c>
       <c r="F3" s="8" t="n">
-        <v>-1.6193</v>
+        <v>-1.7046</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45769</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>163.74</v>
+        <v>144.39</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45775</v>
       </c>
       <c r="F7" s="9" t="n">
-        <v>475.89</v>
+        <v>379.8</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45789</v>
       </c>
       <c r="F8" t="n">
-        <v>21106</v>
+        <v>21023</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.009343557736267577</v>
+        <v>0.009715111516397685</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         <v>45929</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>165.11</v>
+        <v>133.36</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>0.2900443844607591</v>
+        <v>0.2920085388687216</v>
       </c>
     </row>
     <row r="10">
@@ -1406,7 +1406,7 @@
         <v>45929</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>2717.9</v>
+        <v>2655.8</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.01683299315983789</v>
+        <v>0.01677273782725457</v>
       </c>
     </row>
     <row r="11">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.6193</v>
+        <v>-1.7046</v>
       </c>
       <c r="E3" s="1" t="n"/>
       <c r="F3" t="inlineStr">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>163.74</v>
+        <v>144.39</v>
       </c>
       <c r="T3" s="1" t="n"/>
       <c r="U3" t="inlineStr">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="W3" t="n">
-        <v>475.89</v>
+        <v>379.8</v>
       </c>
       <c r="Y3" s="1" t="n"/>
       <c r="Z3" t="inlineStr">
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>21106</v>
+        <v>21023</v>
       </c>
       <c r="AD3" s="1" t="n"/>
       <c r="AE3" t="inlineStr">
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="AG3" t="n">
-        <v>165.11</v>
+        <v>133.36</v>
       </c>
       <c r="AI3" s="1" t="n"/>
       <c r="AJ3" t="inlineStr">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="AL3" t="n">
-        <v>2717.9</v>
+        <v>2655.8</v>
       </c>
       <c r="AN3" s="1" t="n"/>
     </row>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.8235</v>
+        <v>-1.812</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>182.46</v>
+        <v>163.18</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="W4" t="n">
-        <v>483.43</v>
+        <v>435.53</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>20993</v>
+        <v>21048</v>
       </c>
       <c r="AB4" t="n">
         <v>20895</v>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>0.004668222740913638</v>
+        <v>0.007269099201824401</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         </is>
       </c>
       <c r="AF4" t="n">
-        <v>154.34</v>
+        <v>178.64</v>
       </c>
       <c r="AG4" t="n">
         <v>15.6</v>
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="AI4" s="1" t="n">
-        <v>0.8989244525074511</v>
+        <v>0.9126735333631886</v>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="AK4" t="n">
-        <v>2789.8</v>
+        <v>2788.6</v>
       </c>
       <c r="AL4" t="n">
         <v>2734.46</v>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="AN4" s="1" t="n">
-        <v>0.01983654742275437</v>
+        <v>0.01941476009467112</v>
       </c>
     </row>
     <row r="5">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.619273066520691</v>
+        <v>-1.704642176628113</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>185.6512184533644</v>
+        <v>185.6512184533643</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>183.9512184533644</v>
+        <v>183.9512184533643</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>163.7395477294922</v>
+        <v>144.3864593505859</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -4679,31 +4679,31 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>475.895</v>
+        <v>379.795</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>21011.9375</v>
+        <v>20841.94921875</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>156.8863372802734</v>
+        <v>119.2561721801758</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="X3" t="n">
-        <v>2657.80400578</v>
+        <v>2569.65917196</v>
       </c>
     </row>
     <row r="4">
@@ -4713,7 +4713,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.694326877593994</v>
+        <v>-1.723193168640137</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>185.0337255045844</v>
+        <v>185.0337255045843</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>183.1337255045844</v>
+        <v>183.1337255045843</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>171.2279968261719</v>
+        <v>151.7970886230469</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -4745,31 +4745,31 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>488.645</v>
+        <v>411.945</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>21017.892578125</v>
+        <v>20927.55859375</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>160.4434814453125</v>
+        <v>105.9077224731445</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="X4" t="n">
-        <v>2673.353007853334</v>
+        <v>2556.25917196</v>
       </c>
     </row>
     <row r="5">
@@ -4779,7 +4779,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.921828269958496</v>
+        <v>-1.873843550682068</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>186.1999969482422</v>
+        <v>166.9789428710938</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -4811,31 +4811,31 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>485.5749999999999</v>
+        <v>428.075</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>21042.662109375</v>
+        <v>20930.78125</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>153.1595153808594</v>
+        <v>103.8366241455078</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="X5" t="n">
-        <v>2678.202009926666</v>
+        <v>2554.15917196</v>
       </c>
     </row>
     <row r="6">
@@ -4845,7 +4845,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.952881932258606</v>
+        <v>-1.970340251922607</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>183.7987396070245</v>
+        <v>183.7987396070244</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>182.0987396070245</v>
+        <v>182.0987396070244</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>186.1999969482422</v>
+        <v>166.9789428710938</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -4877,31 +4877,31 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>481.795</v>
+        <v>443.495</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>21052.828125</v>
+        <v>20923.6171875</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>155.5808410644531</v>
+        <v>97.17086029052734</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="X6" t="n">
-        <v>2692.651012</v>
+        <v>2547.55917196</v>
       </c>
     </row>
     <row r="7">
@@ -4911,7 +4911,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.724899768829346</v>
+        <v>-1.680814385414124</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>183.1812466582445</v>
+        <v>183.1812466582444</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>182.1812466582445</v>
+        <v>182.0812466582445</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>186.1999969482422</v>
+        <v>166.9789428710938</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -4943,31 +4943,31 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>477.6949999999999</v>
+        <v>458.595</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>21039.91015625</v>
+        <v>20968.271484375</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>157.9113922119141</v>
+        <v>97.35113525390625</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="X7" t="n">
-        <v>2703.587770052</v>
+        <v>2573.03158887</v>
       </c>
     </row>
     <row r="8">
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.041100025177002</v>
+        <v>-1.11623215675354</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>186.1999969482422</v>
+        <v>166.9789428710938</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -5013,27 +5013,27 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>21035.4296875</v>
+        <v>21059.560546875</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>164.6091918945312</v>
+        <v>111.6657485961914</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="X8" t="n">
-        <v>2718.924528104</v>
+        <v>2612.60400578</v>
       </c>
     </row>
     <row r="9">
@@ -5079,27 +5079,27 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>21041.681640625</v>
+        <v>21046.796875</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>160.3242797851562</v>
+        <v>124.3718490600586</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="X9" t="n">
-        <v>2723.261286156</v>
+        <v>2637.353007853334</v>
       </c>
     </row>
     <row r="10">
@@ -5145,27 +5145,27 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>21069.845703125</v>
+        <v>21040.080078125</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>180.8813781738281</v>
+        <v>116.9585266113281</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="X10" t="n">
-        <v>2752.498044208</v>
+        <v>2642.002009926666</v>
       </c>
     </row>
     <row r="11">
@@ -5211,27 +5211,27 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>21218.25390625</v>
+        <v>21030.126953125</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>177.6894378662109</v>
+        <v>127.1689682006836</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="X11" t="n">
-        <v>2757.93480226</v>
+        <v>2664.251012</v>
       </c>
     </row>
     <row r="12">
@@ -5277,27 +5277,27 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>21222.599609375</v>
+        <v>21061.42578125</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>175.3060302734375</v>
+        <v>128.2112121582031</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="X12" t="n">
-        <v>2765.565523792</v>
+        <v>2673.887770052</v>
       </c>
     </row>
     <row r="13">
@@ -5343,27 +5343,27 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>21236.4453125</v>
+        <v>21133.748046875</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>173.4469299316406</v>
+        <v>143.9145355224609</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="X13" t="n">
-        <v>2773.696245324</v>
+        <v>2698.224528104</v>
       </c>
     </row>
     <row r="14">
@@ -5409,27 +5409,27 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>21138.306640625</v>
+        <v>21131.57421875</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>186.0059661865234</v>
+        <v>147.3128662109375</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="X14" t="n">
-        <v>2796.326966856</v>
+        <v>2710.261286156</v>
       </c>
     </row>
     <row r="15">
@@ -5475,27 +5475,27 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>21132.068359375</v>
+        <v>21060.236328125</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>177.2228088378906</v>
+        <v>166.466552734375</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="X15" t="n">
-        <v>2797.557688388</v>
+        <v>2738.098044208</v>
       </c>
     </row>
     <row r="16">
@@ -5541,27 +5541,27 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>21153.162109375</v>
+        <v>21065.900390625</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>177.181884765625</v>
+        <v>170.1729278564453</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="X16" t="n">
-        <v>2807.588409919999</v>
+        <v>2750.43480226</v>
       </c>
     </row>
     <row r="17">
@@ -5607,27 +5607,27 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>21181.21875</v>
+        <v>21035.1796875</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>177.7243499755859</v>
+        <v>176.0295104980469</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="X17" t="n">
-        <v>2824.154764223999</v>
+        <v>2766.265523792</v>
       </c>
     </row>
     <row r="18">
@@ -5673,27 +5673,27 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>21214.61328125</v>
+        <v>21034.828125</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>173.6243591308594</v>
+        <v>198.0029602050781</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="X18" t="n">
-        <v>2777</v>
+        <v>2798.296245324</v>
       </c>
     </row>
     <row r="19">
@@ -5739,27 +5739,27 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>21210.251953125</v>
+        <v>21043.349609375</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>173.9425659179688</v>
+        <v>217.9429626464844</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
-        </is>
-      </c>
-      <c r="W19" t="n">
-        <v>2777</v>
+          <t>2025/10/31</t>
+        </is>
+      </c>
+      <c r="X19" t="n">
+        <v>2828.226966856</v>
       </c>
     </row>
     <row r="20">
@@ -5805,27 +5805,27 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>21222.685546875</v>
+        <v>21082.033203125</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>174.2629241943359</v>
+        <v>209.9820098876953</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
-        </is>
-      </c>
-      <c r="W20" t="n">
-        <v>2804</v>
+          <t>2025/10/30</t>
+        </is>
+      </c>
+      <c r="X20" t="n">
+        <v>2830.357688388</v>
       </c>
     </row>
     <row r="21">
@@ -5871,27 +5871,27 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>21231.388671875</v>
+        <v>21095.0625</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>179.0040435791016</v>
+        <v>205.0237121582031</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
-        </is>
-      </c>
-      <c r="W21" t="n">
-        <v>2799</v>
+          <t>2025/10/29</t>
+        </is>
+      </c>
+      <c r="X21" t="n">
+        <v>2775</v>
       </c>
     </row>
     <row r="22">
@@ -5937,27 +5937,27 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>21225</v>
+        <v>21260.626953125</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>192.3049011230469</v>
+        <v>218.6678619384766</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>2777</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="23">
@@ -6003,27 +6003,27 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>21225</v>
+        <v>21295</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>192.3049</v>
+        <v>242.8623</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>2781</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="24">
@@ -6069,27 +6069,27 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>21165</v>
+        <v>21140</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>180.3049</v>
+        <v>230.8623</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>2769</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="25">
@@ -6135,27 +6135,27 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>21045</v>
+        <v>21360</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>130.8787</v>
+        <v>215.3049</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>2769</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="26">
@@ -6201,27 +6201,27 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>20965</v>
+        <v>21225</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>141.8787</v>
+        <v>210.3049</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>2780</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="27">
@@ -6267,27 +6267,27 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>20910</v>
+        <v>21165</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>134.8787</v>
+        <v>188.3049</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="W27" t="n">
-        <v>2773</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="28">
@@ -6333,27 +6333,27 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>20910</v>
+        <v>21045</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>167.8787</v>
+        <v>192.3049</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="W28" t="n">
-        <v>2806</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="29">
@@ -6399,27 +6399,27 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>20975</v>
+        <v>20965</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>173.8787</v>
+        <v>180.3049</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="W29" t="n">
-        <v>2812</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="30">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -6473,19 +6473,19 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>112.7122</v>
+        <v>130.8787</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="W30" t="n">
-        <v>2830</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="31">
@@ -6531,27 +6531,27 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>20860</v>
+        <v>20910</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>55.6513</v>
+        <v>141.8787</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="W31" t="n">
-        <v>2818</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="32">
@@ -6597,27 +6597,27 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>20885</v>
+        <v>20975</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>89.65130000000001</v>
+        <v>134.8787</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>2852</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="33">
@@ -6663,27 +6663,27 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>20980</v>
+        <v>20910</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>94.65130000000001</v>
+        <v>167.8787</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="W33" t="n">
-        <v>2857</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="34">
@@ -6729,27 +6729,27 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>21090</v>
+        <v>20860</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>71.8665</v>
+        <v>173.8787</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="W34" t="n">
-        <v>2894</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="35">
@@ -6795,27 +6795,27 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>20680</v>
+        <v>20885</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>47.8665</v>
+        <v>112.7122</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="W35" t="n">
-        <v>2870</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="36">
@@ -6861,27 +6861,27 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>20730</v>
+        <v>20980</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>24.8665</v>
+        <v>55.6513</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="W36" t="n">
-        <v>2847</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="37">
@@ -6927,27 +6927,27 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>20745</v>
+        <v>21090</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>89.8665</v>
+        <v>89.65130000000001</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="W37" t="n">
-        <v>2912</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="38">
@@ -6993,27 +6993,27 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>20765</v>
+        <v>20680</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>105.8665</v>
+        <v>94.65130000000001</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="W38" t="n">
-        <v>2928</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="39">
@@ -7059,27 +7059,27 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>20705</v>
+        <v>20730</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>18.3078</v>
+        <v>71.8665</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="W39" t="n">
-        <v>2909</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="40">
@@ -7125,27 +7125,27 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>20685</v>
+        <v>20745</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>22.3078</v>
+        <v>47.8665</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="W40" t="n">
-        <v>2913</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="41">
@@ -7191,27 +7191,27 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>20745</v>
+        <v>20765</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>60.3078</v>
+        <v>24.8665</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="W41" t="n">
-        <v>2951</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="42">
@@ -7257,27 +7257,27 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>20795</v>
+        <v>20705</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>-15.6922</v>
+        <v>89.8665</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="W42" t="n">
-        <v>2875</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="43">
@@ -7323,27 +7323,27 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>20785</v>
+        <v>20685</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>-15.6922</v>
+        <v>105.8665</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="W43" t="n">
-        <v>2875</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="44">
@@ -7389,27 +7389,27 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>20910</v>
+        <v>20745</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>-33.0049</v>
+        <v>18.3078</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="W44" t="n">
-        <v>2908</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="45">
@@ -7455,27 +7455,27 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>20975</v>
+        <v>20795</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>-67.00490000000001</v>
+        <v>22.3078</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="W45" t="n">
-        <v>2874</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="46">
@@ -7521,27 +7521,27 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>21020</v>
+        <v>20785</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>-58.0049</v>
+        <v>60.3078</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="W46" t="n">
-        <v>2883</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="47">
@@ -7587,27 +7587,27 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>21120</v>
+        <v>20910</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>-28.0049</v>
+        <v>-15.6922</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="W47" t="n">
-        <v>2913</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="48">
@@ -7653,27 +7653,27 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>20915</v>
+        <v>20975</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>22.9951</v>
+        <v>-15.6922</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="W48" t="n">
-        <v>2964</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="49">
@@ -7719,27 +7719,27 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>20790</v>
+        <v>21020</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>-80.0874</v>
+        <v>-33.0049</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="W49" t="n">
-        <v>2948</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="50">
@@ -7785,27 +7785,27 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>20750</v>
+        <v>21120</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>-63.0874</v>
+        <v>-67.00490000000001</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="W50" t="n">
-        <v>2965</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="51">
@@ -7851,27 +7851,27 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>20720</v>
+        <v>20915</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>-37.0874</v>
+        <v>-58.0049</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="W51" t="n">
-        <v>2991</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="52">
@@ -7917,27 +7917,27 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>20695</v>
+        <v>20790</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>-53.0874</v>
+        <v>-28.0049</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="W52" t="n">
-        <v>2975</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="53">
@@ -7983,27 +7983,27 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>20605</v>
+        <v>20750</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>-43.0874</v>
+        <v>22.9951</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="W53" t="n">
-        <v>2985</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="54">
@@ -8049,27 +8049,27 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>20710</v>
+        <v>20720</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>-15.4857</v>
+        <v>-80.0874</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="W54" t="n">
-        <v>3042</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="55">
@@ -8115,27 +8115,27 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>20720</v>
+        <v>20695</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>-16.4857</v>
+        <v>-63.0874</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="W55" t="n">
-        <v>3041</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="56">
@@ -8181,27 +8181,27 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>20645</v>
+        <v>20605</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>-11.4857</v>
+        <v>-37.0874</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="W56" t="n">
-        <v>3046</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="57">
@@ -8247,27 +8247,27 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>20740</v>
+        <v>20710</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>92.51430000000001</v>
+        <v>-53.0874</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="W57" t="n">
-        <v>3150</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="58">
@@ -8313,27 +8313,27 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>20750</v>
+        <v>20720</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>71.51430000000001</v>
+        <v>-43.0874</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="W58" t="n">
-        <v>3129</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="59">
@@ -8379,27 +8379,27 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>20810</v>
+        <v>20645</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.9634</v>
+        <v>-15.4857</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="W59" t="n">
-        <v>3114</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="60">
@@ -8445,27 +8445,27 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>20715</v>
+        <v>20740</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>16.9634</v>
+        <v>-16.4857</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="W60" t="n">
-        <v>3128</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="61">
@@ -8511,27 +8511,27 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>20770</v>
+        <v>20750</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>1.9634</v>
+        <v>-11.4857</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="W61" t="n">
-        <v>3113</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="62">
@@ -8577,27 +8577,27 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>20630</v>
+        <v>20810</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>47.9634</v>
+        <v>92.51430000000001</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="W62" t="n">
-        <v>3159</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="63">
@@ -8643,27 +8643,27 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>20590</v>
+        <v>20715</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>51.9634</v>
+        <v>71.51430000000001</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="W63" t="n">
-        <v>3163</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="64">
@@ -8709,27 +8709,27 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>20535</v>
+        <v>20770</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>83.1228</v>
+        <v>2.9634</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="W64" t="n">
-        <v>3215</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="65">
@@ -8775,27 +8775,27 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>20545</v>
+        <v>20630</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>84.1228</v>
+        <v>16.9634</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="W65" t="n">
-        <v>3216</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="66">
@@ -8841,27 +8841,27 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>20600</v>
+        <v>20590</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>148.1228</v>
+        <v>1.9634</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="W66" t="n">
-        <v>3280</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="67">
@@ -8907,27 +8907,27 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>20770</v>
+        <v>20535</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>40.1228</v>
+        <v>47.9634</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="W67" t="n">
-        <v>3172</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="68">
@@ -8973,27 +8973,27 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>20715</v>
+        <v>20545</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>28.1228</v>
+        <v>51.9634</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="W68" t="n">
-        <v>3160</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="69">
@@ -9039,27 +9039,27 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>20790</v>
+        <v>20600</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>16.7175</v>
+        <v>83.1228</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="W69" t="n">
-        <v>3203</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="70">
@@ -9105,27 +9105,27 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>20735</v>
+        <v>20770</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>59.7175</v>
+        <v>84.1228</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="W70" t="n">
-        <v>3246</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="71">
@@ -9171,27 +9171,27 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>20700</v>
+        <v>20715</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>48.7175</v>
+        <v>148.1228</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="W71" t="n">
-        <v>3235</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="72">
@@ -9237,27 +9237,27 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>20685</v>
+        <v>20790</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>16.7175</v>
+        <v>40.1228</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="W72" t="n">
-        <v>3203</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="73">
@@ -9303,27 +9303,27 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>20750</v>
+        <v>20735</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>14.7175</v>
+        <v>28.1228</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="W73" t="n">
-        <v>3201</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="74">
@@ -9369,27 +9369,27 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>20650</v>
+        <v>20700</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>9.2958</v>
+        <v>16.7175</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="W74" t="n">
-        <v>3215</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="75">
@@ -9435,27 +9435,27 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>20560</v>
+        <v>20685</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>120.2958</v>
+        <v>59.7175</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="W75" t="n">
-        <v>3326</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="76">
@@ -9501,27 +9501,27 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>20525</v>
+        <v>20750</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>103.2958</v>
+        <v>48.7175</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="W76" t="n">
-        <v>3309</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="77">
@@ -9567,27 +9567,27 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>20510</v>
+        <v>20650</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>45.2958</v>
+        <v>16.7175</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="W77" t="n">
-        <v>3251</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="78">
@@ -9633,27 +9633,27 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>20510</v>
+        <v>20560</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>221.2958</v>
+        <v>14.7175</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="W78" t="n">
-        <v>3427</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="79">
@@ -9699,27 +9699,27 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>20625</v>
+        <v>20525</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>226.202</v>
+        <v>9.2958</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="W79" t="n">
-        <v>3427</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="80">
@@ -9765,27 +9765,27 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>20605</v>
+        <v>20510</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>153.202</v>
+        <v>120.2958</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="W80" t="n">
-        <v>3354</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="81">
@@ -9831,27 +9831,27 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>20615</v>
+        <v>20510</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>312.202</v>
+        <v>103.2958</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="W81" t="n">
-        <v>3513</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="82">
@@ -9897,27 +9897,27 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>20760</v>
+        <v>20625</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>209.202</v>
+        <v>45.2958</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="W82" t="n">
-        <v>3410</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="83">
@@ -9963,27 +9963,27 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>20760</v>
+        <v>20605</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>-49.798</v>
+        <v>221.2958</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="W83" t="n">
-        <v>3151</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="84">
@@ -10029,27 +10029,27 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>20790</v>
+        <v>20615</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>-98.4494</v>
+        <v>226.202</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="W84" t="n">
-        <v>3101</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="85">
@@ -10095,27 +10095,27 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>20900</v>
+        <v>20760</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>-78.4494</v>
+        <v>153.202</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="W85" t="n">
-        <v>3121</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="86">
@@ -10161,27 +10161,27 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>20840</v>
+        <v>20760</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>90.5506</v>
+        <v>312.202</v>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="W86" t="n">
-        <v>3290</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="87">
@@ -10227,27 +10227,27 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>20510</v>
+        <v>20790</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>-4.4494</v>
+        <v>209.202</v>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="W87" t="n">
-        <v>3195</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="88">
@@ -10293,27 +10293,27 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>20415</v>
+        <v>20900</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>-9.449400000000001</v>
+        <v>-49.798</v>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="W88" t="n">
-        <v>3190</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="89">
@@ -10359,27 +10359,27 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>20475</v>
+        <v>20840</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>64.00020000000001</v>
+        <v>-98.4494</v>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="W89" t="n">
-        <v>3256</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="90">
@@ -10425,27 +10425,27 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>20430</v>
+        <v>20510</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>79.00020000000001</v>
+        <v>-78.4494</v>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="W90" t="n">
-        <v>3271</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="91">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="Q91" t="n">
@@ -10499,19 +10499,19 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>160.0002</v>
+        <v>90.5506</v>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="W91" t="n">
-        <v>3352</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="92">
@@ -10557,27 +10557,27 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>20695</v>
+        <v>20475</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>72.00020000000001</v>
+        <v>-4.4494</v>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="W92" t="n">
-        <v>3264</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="93">
@@ -10623,27 +10623,27 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>20700</v>
+        <v>20430</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>-41.9998</v>
+        <v>-9.449400000000001</v>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="W93" t="n">
-        <v>3150</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="94">
@@ -10689,27 +10689,27 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>20515</v>
+        <v>20415</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>-8.788500000000001</v>
+        <v>64.00020000000001</v>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="W94" t="n">
-        <v>3150</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="95">
@@ -10755,27 +10755,27 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>20525</v>
+        <v>20695</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>10.2115</v>
+        <v>79.00020000000001</v>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="W95" t="n">
-        <v>3169</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="96">
@@ -10821,27 +10821,27 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>20410</v>
+        <v>20700</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>-93.7885</v>
+        <v>160.0002</v>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="W96" t="n">
-        <v>3065</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="97">
@@ -10887,27 +10887,27 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>20635</v>
+        <v>20515</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>-52.7885</v>
+        <v>72.00020000000001</v>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="W97" t="n">
-        <v>3106</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="98">
@@ -10953,27 +10953,27 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>20680</v>
+        <v>20525</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>-72.7885</v>
+        <v>-41.9998</v>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="W98" t="n">
-        <v>3086</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="99">
@@ -11019,27 +11019,27 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>20635</v>
+        <v>20410</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>-77.786</v>
+        <v>-8.788500000000001</v>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="W99" t="n">
-        <v>3034</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="100">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="Q100" t="n">
@@ -11093,19 +11093,19 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>-92.786</v>
+        <v>10.2115</v>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="W100" t="n">
-        <v>3019</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="101">
@@ -11151,27 +11151,27 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>20580</v>
+        <v>20680</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>-113.786</v>
+        <v>-93.7885</v>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="W101" t="n">
-        <v>2998</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="102">
@@ -11217,27 +11217,27 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>20580</v>
+        <v>20635</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>-111.786</v>
+        <v>-52.7885</v>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="W102" t="n">
-        <v>3000</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="103">
@@ -11275,27 +11275,27 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>20445</v>
+        <v>20635</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>-116.786</v>
+        <v>-72.7885</v>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="W103" t="n">
-        <v>2995</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="104">
@@ -11333,27 +11333,27 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>20355</v>
+        <v>20580</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>-56.6412</v>
+        <v>-77.786</v>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="W104" t="n">
-        <v>3001</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="105">
@@ -11391,27 +11391,27 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>20315</v>
+        <v>20580</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>-44.6412</v>
+        <v>-92.786</v>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="W105" t="n">
-        <v>3013</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="106">
@@ -11449,27 +11449,27 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>20365</v>
+        <v>20445</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>-145.6412</v>
+        <v>-113.786</v>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="W106" t="n">
-        <v>2912</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="107">
@@ -11507,23 +11507,23 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>20465</v>
+        <v>20355</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>-57.6412</v>
+        <v>-111.786</v>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="W107" t="n">
@@ -11565,27 +11565,27 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>20585</v>
+        <v>20315</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>-57.6412</v>
+        <v>-116.786</v>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="W108" t="n">
-        <v>3000</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="109">
@@ -11623,27 +11623,27 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>20680</v>
+        <v>20365</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>-20.3199</v>
+        <v>-56.6412</v>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="W109" t="n">
-        <v>2980</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="110">
@@ -11681,27 +11681,27 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>20460</v>
+        <v>20465</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>17.6801</v>
+        <v>-44.6412</v>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="W110" t="n">
-        <v>3018</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="111">
@@ -11739,27 +11739,27 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>20405</v>
+        <v>20585</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>49.6801</v>
+        <v>-145.6412</v>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="W111" t="n">
-        <v>3050</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="112">
@@ -11797,27 +11797,27 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>20440</v>
+        <v>20680</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>23.6801</v>
+        <v>-57.6412</v>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="W112" t="n">
-        <v>3024</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="113">
@@ -11855,27 +11855,27 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>20395</v>
+        <v>20460</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>26.6801</v>
+        <v>-57.6412</v>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="W113" t="n">
-        <v>3027</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="114">
@@ -11913,27 +11913,27 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>20250</v>
+        <v>20405</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>115.5633</v>
+        <v>-20.3199</v>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="W114" t="n">
-        <v>3055</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="115">
@@ -11971,27 +11971,27 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>19980</v>
+        <v>20440</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>170.5633</v>
+        <v>17.6801</v>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="W115" t="n">
-        <v>3110</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="116">
@@ -12029,27 +12029,27 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>20025</v>
+        <v>20395</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>180.5633</v>
+        <v>49.6801</v>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="W116" t="n">
-        <v>3120</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="117">
@@ -12087,27 +12087,27 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>20070</v>
+        <v>20250</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>150.5633</v>
+        <v>23.6801</v>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="W117" t="n">
-        <v>3090</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="118">
@@ -12145,27 +12145,27 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>20010</v>
+        <v>19980</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>195.1842</v>
+        <v>26.6801</v>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="W118" t="n">
-        <v>3082</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="119">
@@ -12203,27 +12203,27 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>20075</v>
+        <v>20025</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>236.1842</v>
+        <v>115.5633</v>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="W119" t="n">
-        <v>3123</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="120">
@@ -12261,27 +12261,27 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>19860</v>
+        <v>20070</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>233.1842</v>
+        <v>170.5633</v>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="W120" t="n">
-        <v>3120</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="121">
@@ -12319,27 +12319,27 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>20070</v>
+        <v>20010</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>263.1842</v>
+        <v>180.5633</v>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="W121" t="n">
-        <v>3150</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="122">
@@ -12377,27 +12377,27 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>20200</v>
+        <v>20075</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="T122" t="n">
-        <v>339.1842</v>
+        <v>150.5633</v>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="W122" t="n">
-        <v>3226</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="123">
@@ -12435,27 +12435,27 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>20095</v>
+        <v>19860</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="T123" t="n">
-        <v>358.138</v>
+        <v>195.1842</v>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="W123" t="n">
-        <v>3228</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="124">
@@ -12493,27 +12493,27 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>20040</v>
+        <v>20070</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>360.138</v>
+        <v>236.1842</v>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="W124" t="n">
-        <v>3230</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="125">
@@ -12551,27 +12551,27 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>20155</v>
+        <v>20200</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>262.138</v>
+        <v>233.1842</v>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="W125" t="n">
-        <v>3132</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="126">
@@ -12609,27 +12609,27 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>20155</v>
+        <v>20095</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>282.138</v>
+        <v>263.1842</v>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="W126" t="n">
-        <v>3152</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="127">
@@ -12667,27 +12667,27 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>20210</v>
+        <v>20040</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>75.13800000000001</v>
+        <v>339.1842</v>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="W127" t="n">
-        <v>2945</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="128">
@@ -12725,27 +12725,27 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>20190</v>
+        <v>20155</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>199.4058</v>
+        <v>358.138</v>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="W128" t="n">
-        <v>3073</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="129">
@@ -12783,27 +12783,27 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>20075</v>
+        <v>20155</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>68.4058</v>
+        <v>360.138</v>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="W129" t="n">
-        <v>2942</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="130">
@@ -12841,27 +12841,27 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>20110</v>
+        <v>20210</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="T130" t="n">
-        <v>1.4058</v>
+        <v>262.138</v>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="W130" t="n">
-        <v>2875</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="131">
@@ -12899,27 +12899,27 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>20130</v>
+        <v>20190</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="T131" t="n">
-        <v>-22.5942</v>
+        <v>282.138</v>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="W131" t="n">
-        <v>2851</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="132">
@@ -12957,27 +12957,27 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>20185</v>
+        <v>20075</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>-43.5942</v>
+        <v>75.13800000000001</v>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="W132" t="n">
-        <v>2830</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="133">
@@ -13015,27 +13015,27 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>20275</v>
+        <v>20110</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="T133" t="n">
-        <v>-94.102</v>
+        <v>199.4058</v>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="W133" t="n">
-        <v>2782</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="134">
@@ -13073,27 +13073,27 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>20005</v>
+        <v>20130</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>-174.102</v>
+        <v>68.4058</v>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="W134" t="n">
-        <v>2702</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="135">
@@ -13123,27 +13123,27 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>19910</v>
+        <v>20185</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="T135" t="n">
-        <v>-195.102</v>
+        <v>1.4058</v>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="W135" t="n">
-        <v>2681</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="136">
@@ -13173,27 +13173,27 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>19585</v>
+        <v>20275</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="T136" t="n">
-        <v>-144.5741</v>
+        <v>-22.5942</v>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="W136" t="n">
-        <v>2751</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="137">
@@ -13223,27 +13223,27 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>19510</v>
+        <v>20005</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="T137" t="n">
-        <v>-133.5741</v>
+        <v>-43.5942</v>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="W137" t="n">
-        <v>2762</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="138">
@@ -13273,27 +13273,27 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>19465</v>
+        <v>19910</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>-63.5741</v>
+        <v>-94.102</v>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="W138" t="n">
-        <v>2832</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="139">
@@ -13323,27 +13323,27 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>19785</v>
+        <v>19585</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>-79.5741</v>
+        <v>-174.102</v>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="W139" t="n">
-        <v>2816</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="140">
@@ -13373,27 +13373,27 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>19910</v>
+        <v>19510</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="T140" t="n">
-        <v>-68.40479999999999</v>
+        <v>-195.102</v>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="W140" t="n">
-        <v>2847</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="141">
@@ -13423,27 +13423,27 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>19930</v>
+        <v>19465</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="T141" t="n">
-        <v>-97.40479999999999</v>
+        <v>-144.5741</v>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="W141" t="n">
-        <v>2818</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="142">
@@ -13473,27 +13473,27 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>19935</v>
+        <v>19785</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="T142" t="n">
-        <v>-124.4048</v>
+        <v>-133.5741</v>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="W142" t="n">
-        <v>2791</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="143">
@@ -13523,27 +13523,27 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>20030</v>
+        <v>19910</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>-109.4048</v>
+        <v>-63.5741</v>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="W143" t="n">
-        <v>2806</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="144">
@@ -13573,7 +13573,7 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="Q144" t="n">
@@ -13581,19 +13581,19 @@
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>-141.4048</v>
+        <v>-79.5741</v>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="W144" t="n">
-        <v>2774</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="145">
@@ -13623,27 +13623,27 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>19860</v>
+        <v>19935</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="T145" t="n">
-        <v>-124.3657</v>
+        <v>-68.40479999999999</v>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="W145" t="n">
-        <v>2828</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="146">
@@ -13673,27 +13673,27 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>19745</v>
+        <v>20030</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="T146" t="n">
-        <v>-137.3657</v>
+        <v>-97.40479999999999</v>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="W146" t="n">
-        <v>2815</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="147">
@@ -13723,27 +13723,27 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>19870</v>
+        <v>19930</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>-202.3657</v>
+        <v>-124.4048</v>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="W147" t="n">
-        <v>2750</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="148">
@@ -13773,27 +13773,27 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>19695</v>
+        <v>19860</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>-82.3657</v>
+        <v>-109.4048</v>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="W148" t="n">
-        <v>2870</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="149">
@@ -13807,917 +13807,957 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>19645</v>
+        <v>19745</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>-152.3657</v>
+        <v>-141.4048</v>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="W149" t="n">
-        <v>2800</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="150">
       <c r="P150" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>19545</v>
+        <v>19870</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="T150" t="n">
-        <v>-250.2669</v>
+        <v>-124.3657</v>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="W150" t="n">
-        <v>2797</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="151">
       <c r="P151" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>19595</v>
+        <v>19695</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="T151" t="n">
-        <v>-257.2669</v>
+        <v>-137.3657</v>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="W151" t="n">
-        <v>2790</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="152">
       <c r="P152" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>19685</v>
+        <v>19645</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="T152" t="n">
-        <v>-327.2669</v>
+        <v>-202.3657</v>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="W152" t="n">
-        <v>2720</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="153">
       <c r="P153" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>19695</v>
+        <v>19545</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="T153" t="n">
-        <v>-289.2669</v>
+        <v>-82.3657</v>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="W153" t="n">
-        <v>2758</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="154">
       <c r="P154" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>19805</v>
+        <v>19595</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="T154" t="n">
-        <v>-228.792</v>
+        <v>-152.3657</v>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="W154" t="n">
-        <v>2863</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="155">
       <c r="P155" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>19325</v>
+        <v>19685</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="T155" t="n">
-        <v>-211.792</v>
+        <v>-250.2669</v>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="W155" t="n">
-        <v>2880</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="156">
       <c r="P156" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>19635</v>
+        <v>19695</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>-151.792</v>
+        <v>-257.2669</v>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="W156" t="n">
-        <v>2940</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="157">
       <c r="P157" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>19685</v>
+        <v>19805</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>2025/04/08</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>-327.2669</v>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="W157" t="n">
-        <v>2925</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="158">
       <c r="P158" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>20420</v>
+        <v>19325</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>2025/04/07</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>-289.2669</v>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="W158" t="n">
-        <v>3022</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="159">
       <c r="P159" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>20435</v>
+        <v>19635</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>2025/04/03</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>-228.792</v>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="W159" t="n">
-        <v>3043</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="160">
       <c r="P160" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>20525</v>
+        <v>19685</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>2025/04/02</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>-211.792</v>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="W160" t="n">
-        <v>3090</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="161">
       <c r="P161" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>20480</v>
+        <v>20420</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>2025/04/01</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>-151.792</v>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="W161" t="n">
-        <v>3047</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="162">
       <c r="P162" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>20580</v>
+        <v>20435</v>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="W162" t="n">
-        <v>3059</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="163">
       <c r="P163" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>20815</v>
+        <v>20525</v>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="W163" t="n">
-        <v>3005</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="164">
       <c r="P164" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>20720</v>
+        <v>20480</v>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="W164" t="n">
-        <v>2976</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="165">
       <c r="P165" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>20705</v>
+        <v>20580</v>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="W165" t="n">
-        <v>3002</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="166">
       <c r="P166" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>20750</v>
+        <v>20815</v>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="W166" t="n">
-        <v>3072</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="167">
       <c r="P167" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>20700</v>
+        <v>20720</v>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="W167" t="n">
-        <v>3100</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="168">
       <c r="P168" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>20895</v>
+        <v>20705</v>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="W168" t="n">
-        <v>3128</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="169">
       <c r="P169" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>20705</v>
+        <v>20750</v>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="W169" t="n">
-        <v>3135</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="170">
       <c r="P170" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>20715</v>
+        <v>20700</v>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="W170" t="n">
-        <v>3147</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="171">
       <c r="P171" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>20925</v>
+        <v>20895</v>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="W171" t="n">
-        <v>3170</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="172">
       <c r="P172" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>20990</v>
+        <v>20705</v>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="W172" t="n">
-        <v>3165</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="173">
       <c r="P173" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>20970</v>
+        <v>20715</v>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="W173" t="n">
-        <v>3236</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="174">
       <c r="P174" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>20970</v>
+        <v>20925</v>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="W174" t="n">
-        <v>3246</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="175">
       <c r="P175" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>20845</v>
+        <v>20990</v>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="W175" t="n">
-        <v>3253</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="176">
       <c r="P176" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>20895</v>
+        <v>20970</v>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="W176" t="n">
-        <v>3286</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="177">
       <c r="P177" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>20835</v>
+        <v>20970</v>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="W177" t="n">
-        <v>3302</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="178">
       <c r="P178" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>20865</v>
+        <v>20845</v>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="W178" t="n">
-        <v>3294</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="179">
       <c r="P179" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>20620</v>
+        <v>20895</v>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="W179" t="n">
-        <v>3343</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="180">
       <c r="P180" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="Q180" t="n">
-        <v>20630</v>
+        <v>20835</v>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="W180" t="n">
-        <v>3306</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="181">
       <c r="P181" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="Q181" t="n">
-        <v>20670</v>
+        <v>20865</v>
       </c>
       <c r="V181" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="W181" t="n">
-        <v>3351</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="182">
       <c r="P182" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>20640</v>
+        <v>20620</v>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="W182" t="n">
-        <v>3364</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="183">
       <c r="P183" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>20620</v>
+        <v>20630</v>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="W183" t="n">
-        <v>3390</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="184">
       <c r="P184" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>20615</v>
+        <v>20670</v>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="W184" t="n">
-        <v>3432</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="185">
       <c r="P185" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>20530</v>
+        <v>20640</v>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="W185" t="n">
-        <v>3381</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="186">
       <c r="P186" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>20690</v>
+        <v>20620</v>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="W186" t="n">
-        <v>3411</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="187">
       <c r="P187" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>20825</v>
+        <v>20615</v>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="W187" t="n">
-        <v>3350</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="188">
       <c r="P188" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>20830</v>
+        <v>20530</v>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="W188" t="n">
-        <v>3267</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="189">
       <c r="P189" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>20700</v>
+        <v>20690</v>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="W189" t="n">
-        <v>3315</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="190">
       <c r="P190" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>20665</v>
+        <v>20825</v>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="W190" t="n">
-        <v>3343</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="191">
       <c r="P191" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="Q191" t="n">
-        <v>20660</v>
+        <v>20830</v>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="W191" t="n">
-        <v>3396</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="192">
       <c r="P192" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>20710</v>
+        <v>20700</v>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="W192" t="n">
-        <v>3419</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="193">
       <c r="P193" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>20550</v>
+        <v>20665</v>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="W193" t="n">
-        <v>3465</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="194">
       <c r="P194" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>20575</v>
+        <v>20660</v>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="W194" t="n">
-        <v>3535</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="195">
       <c r="P195" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>20675</v>
+        <v>20710</v>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="W195" t="n">
-        <v>3507</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="196">
       <c r="P196" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="Q196" t="n">
@@ -14725,1883 +14765,1883 @@
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="W196" t="n">
-        <v>3651</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="197">
       <c r="P197" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>20600</v>
+        <v>20575</v>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="W197" t="n">
-        <v>3634</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="198">
       <c r="P198" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>20335</v>
+        <v>20675</v>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="W198" t="n">
-        <v>3658</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="199">
       <c r="P199" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>20215</v>
+        <v>20550</v>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="W199" t="n">
-        <v>3801</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="200">
       <c r="P200" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>20240</v>
+        <v>20600</v>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="W200" t="n">
-        <v>3798</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="201">
       <c r="P201" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>20400</v>
+        <v>20335</v>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="W201" t="n">
-        <v>3840</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="202">
       <c r="P202" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>20130</v>
+        <v>20215</v>
       </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="W202" t="n">
-        <v>3868</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="203">
       <c r="P203" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>20315</v>
+        <v>20240</v>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="W203" t="n">
-        <v>3703</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="204">
       <c r="P204" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>20415</v>
+        <v>20400</v>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="W204" t="n">
-        <v>3950</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="205">
       <c r="P205" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>20405</v>
+        <v>20130</v>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="W205" t="n">
-        <v>4051</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="206">
       <c r="P206" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>20470</v>
+        <v>20315</v>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="W206" t="n">
-        <v>4494</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="207">
       <c r="P207" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>20300</v>
+        <v>20415</v>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="W207" t="n">
-        <v>4636</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="208">
       <c r="P208" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="Q208" t="n">
-        <v>20185</v>
+        <v>20405</v>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="W208" t="n">
-        <v>4735</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="209">
       <c r="P209" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="Q209" t="n">
-        <v>20300</v>
+        <v>20470</v>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="W209" t="n">
-        <v>4819</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="210">
       <c r="P210" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="Q210" t="n">
-        <v>20215</v>
+        <v>20300</v>
       </c>
       <c r="V210" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="W210" t="n">
-        <v>4782</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="211">
       <c r="P211" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="Q211" t="n">
-        <v>20145</v>
+        <v>20185</v>
       </c>
       <c r="V211" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="W211" t="n">
-        <v>4725</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="212">
       <c r="P212" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="Q212" t="n">
-        <v>19945</v>
+        <v>20300</v>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="W212" t="n">
-        <v>5079</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="213">
       <c r="P213" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="Q213" t="n">
-        <v>19715</v>
+        <v>20215</v>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="W213" t="n">
-        <v>5308</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="214">
       <c r="P214" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="Q214" t="n">
-        <v>19680</v>
+        <v>20145</v>
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="W214" t="n">
-        <v>5341</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="215">
       <c r="P215" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="Q215" t="n">
-        <v>19565</v>
+        <v>19945</v>
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="W215" t="n">
-        <v>5363</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="216">
       <c r="P216" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="Q216" t="n">
-        <v>19840</v>
+        <v>19715</v>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="W216" t="n">
-        <v>5311</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="217">
       <c r="P217" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="Q217" t="n">
-        <v>19945</v>
+        <v>19680</v>
       </c>
       <c r="V217" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="W217" t="n">
-        <v>5293</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="218">
       <c r="P218" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="Q218" t="n">
-        <v>19780</v>
+        <v>19565</v>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="W218" t="n">
-        <v>5240</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="219">
       <c r="P219" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="Q219" t="n">
-        <v>19805</v>
+        <v>19840</v>
       </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="W219" t="n">
-        <v>5199</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="220">
       <c r="P220" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="Q220" t="n">
-        <v>19795</v>
+        <v>19945</v>
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="W220" t="n">
-        <v>5240</v>
+        <v>5363</v>
       </c>
     </row>
     <row r="221">
       <c r="P221" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="Q221" t="n">
-        <v>19760</v>
+        <v>19780</v>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="W221" t="n">
-        <v>5266</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="222">
       <c r="P222" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="Q222" t="n">
-        <v>19895</v>
+        <v>19805</v>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="W222" t="n">
-        <v>5230</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="223">
       <c r="P223" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="Q223" t="n">
-        <v>19880</v>
+        <v>19795</v>
       </c>
       <c r="V223" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="W223" t="n">
-        <v>5271</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="224">
       <c r="P224" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="Q224" t="n">
-        <v>19915</v>
+        <v>19760</v>
       </c>
       <c r="V224" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="W224" t="n">
-        <v>5179</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="225">
       <c r="P225" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="Q225" t="n">
-        <v>19975</v>
+        <v>19895</v>
       </c>
       <c r="V225" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="W225" t="n">
-        <v>5585</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="226">
       <c r="P226" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="Q226" t="n">
-        <v>19850</v>
+        <v>19880</v>
       </c>
       <c r="V226" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="W226" t="n">
-        <v>5500</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="227">
       <c r="P227" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="Q227" t="n">
-        <v>19925</v>
+        <v>19915</v>
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="W227" t="n">
-        <v>5590</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="228">
       <c r="P228" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="Q228" t="n">
-        <v>19925</v>
+        <v>19975</v>
       </c>
       <c r="V228" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="W228" t="n">
-        <v>5430</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="229">
       <c r="P229" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="Q229" t="n">
-        <v>20215</v>
+        <v>19850</v>
       </c>
       <c r="V229" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="W229" t="n">
-        <v>5510</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="230">
       <c r="P230" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="Q230" t="n">
-        <v>20350</v>
+        <v>19925</v>
       </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="W230" t="n">
-        <v>5604</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="231">
       <c r="P231" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="Q231" t="n">
-        <v>20560</v>
+        <v>19925</v>
       </c>
       <c r="V231" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="W231" t="n">
-        <v>5509</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="232">
       <c r="P232" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="Q232" t="n">
-        <v>20400</v>
+        <v>20215</v>
       </c>
       <c r="V232" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="W232" t="n">
-        <v>5646</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="233">
       <c r="P233" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="Q233" t="n">
-        <v>20295</v>
+        <v>20350</v>
       </c>
       <c r="V233" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="W233" t="n">
-        <v>5684</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="234">
       <c r="P234" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="Q234" t="n">
-        <v>20340</v>
+        <v>20560</v>
       </c>
       <c r="V234" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="W234" t="n">
-        <v>5671</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="235">
       <c r="P235" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="Q235" t="n">
-        <v>20310</v>
+        <v>20400</v>
       </c>
       <c r="V235" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="W235" t="n">
-        <v>5597</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="236">
       <c r="P236" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="Q236" t="n">
-        <v>20505</v>
+        <v>20295</v>
       </c>
       <c r="V236" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="W236" t="n">
-        <v>5570</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="237">
       <c r="P237" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="Q237" t="n">
-        <v>20580</v>
+        <v>20340</v>
       </c>
       <c r="V237" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="W237" t="n">
-        <v>5526</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="238">
       <c r="P238" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="Q238" t="n">
-        <v>20385</v>
+        <v>20310</v>
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="W238" t="n">
-        <v>5561</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="239">
       <c r="P239" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="Q239" t="n">
-        <v>20390</v>
+        <v>20505</v>
       </c>
       <c r="V239" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="W239" t="n">
-        <v>5569</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="240">
       <c r="P240" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="Q240" t="n">
-        <v>20390</v>
+        <v>20580</v>
       </c>
       <c r="V240" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="W240" t="n">
-        <v>5555</v>
+        <v>5597</v>
       </c>
     </row>
     <row r="241">
       <c r="P241" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="Q241" t="n">
-        <v>20225</v>
+        <v>20385</v>
       </c>
       <c r="V241" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="W241" t="n">
-        <v>5540</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="242">
       <c r="P242" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="Q242" t="n">
-        <v>20575</v>
+        <v>20390</v>
       </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="W242" t="n">
-        <v>5555</v>
+        <v>5526</v>
       </c>
     </row>
     <row r="243">
       <c r="P243" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="Q243" t="n">
-        <v>20560</v>
+        <v>20390</v>
       </c>
       <c r="V243" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="W243" t="n">
-        <v>5599</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="244">
       <c r="P244" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="Q244" t="n">
-        <v>20620</v>
+        <v>20225</v>
       </c>
       <c r="V244" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="W244" t="n">
-        <v>5519</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="245">
       <c r="P245" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="Q245" t="n">
-        <v>20420</v>
+        <v>20575</v>
       </c>
       <c r="V245" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="W245" t="n">
-        <v>5482</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="246">
       <c r="P246" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="Q246" t="n">
-        <v>20720</v>
+        <v>20560</v>
       </c>
       <c r="V246" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="W246" t="n">
-        <v>5508</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="247">
       <c r="P247" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="Q247" t="n">
-        <v>20800</v>
+        <v>20620</v>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="W247" t="n">
-        <v>5500</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="248">
       <c r="P248" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="Q248" t="n">
-        <v>20585</v>
+        <v>20420</v>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="W248" t="n">
-        <v>5565</v>
+        <v>5599</v>
       </c>
     </row>
     <row r="249">
       <c r="P249" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="Q249" t="n">
-        <v>20515</v>
+        <v>20720</v>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="W249" t="n">
-        <v>5645</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="250">
       <c r="P250" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="Q250" t="n">
-        <v>20780</v>
+        <v>20800</v>
       </c>
       <c r="V250" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="W250" t="n">
-        <v>5635</v>
+        <v>5482</v>
       </c>
     </row>
     <row r="251">
       <c r="P251" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="Q251" t="n">
-        <v>20560</v>
+        <v>20585</v>
       </c>
       <c r="V251" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="W251" t="n">
-        <v>5607</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="252">
       <c r="P252" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="Q252" t="n">
-        <v>20765</v>
+        <v>20515</v>
       </c>
       <c r="V252" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="W252" t="n">
-        <v>5478</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="253">
       <c r="P253" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="Q253" t="n">
-        <v>20915</v>
+        <v>20780</v>
       </c>
       <c r="V253" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="W253" t="n">
-        <v>5500</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="254">
       <c r="P254" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="Q254" t="n">
-        <v>21390</v>
+        <v>20560</v>
       </c>
       <c r="V254" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="W254" t="n">
-        <v>5590</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="255">
       <c r="P255" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="Q255" t="n">
-        <v>21690</v>
+        <v>20765</v>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="W255" t="n">
-        <v>5406</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="256">
       <c r="P256" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="Q256" t="n">
-        <v>21450</v>
+        <v>20915</v>
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="W256" t="n">
-        <v>5284</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="257">
       <c r="P257" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="Q257" t="n">
-        <v>20960</v>
+        <v>21390</v>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="W257" t="n">
-        <v>5206</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="258">
       <c r="P258" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="Q258" t="n">
-        <v>21010</v>
+        <v>21690</v>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="W258" t="n">
-        <v>5039</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="259">
       <c r="P259" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="Q259" t="n">
-        <v>20855</v>
+        <v>21450</v>
       </c>
       <c r="V259" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="W259" t="n">
-        <v>5100</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="260">
       <c r="P260" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="Q260" t="n">
-        <v>20795</v>
+        <v>20960</v>
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="W260" t="n">
-        <v>5153</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="261">
       <c r="P261" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="Q261" t="n">
-        <v>20710</v>
+        <v>21010</v>
       </c>
       <c r="V261" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="W261" t="n">
-        <v>5021</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="262">
       <c r="P262" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="Q262" t="n">
-        <v>20865</v>
+        <v>20855</v>
       </c>
       <c r="V262" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="W262" t="n">
-        <v>5082</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="263">
       <c r="P263" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="Q263" t="n">
-        <v>20790</v>
+        <v>20795</v>
       </c>
       <c r="V263" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="W263" t="n">
-        <v>4937</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="264">
       <c r="P264" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="Q264" t="n">
-        <v>20895</v>
+        <v>20710</v>
       </c>
       <c r="V264" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="W264" t="n">
-        <v>4951</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="265">
       <c r="P265" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="Q265" t="n">
-        <v>20760</v>
+        <v>20865</v>
       </c>
       <c r="V265" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="W265" t="n">
-        <v>4971</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="266">
       <c r="P266" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="Q266" t="n">
-        <v>21105</v>
+        <v>20790</v>
       </c>
       <c r="V266" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="W266" t="n">
-        <v>4811</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="267">
       <c r="P267" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="Q267" t="n">
-        <v>20875</v>
+        <v>20895</v>
       </c>
       <c r="V267" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="W267" t="n">
-        <v>4804</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="268">
       <c r="P268" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="Q268" t="n">
-        <v>20840</v>
+        <v>20760</v>
       </c>
       <c r="V268" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="W268" t="n">
-        <v>4834</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="269">
       <c r="P269" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="Q269" t="n">
-        <v>20940</v>
+        <v>21105</v>
       </c>
       <c r="V269" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="W269" t="n">
-        <v>4799</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="270">
       <c r="P270" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="Q270" t="n">
-        <v>20640</v>
+        <v>20875</v>
       </c>
       <c r="V270" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="W270" t="n">
-        <v>4515</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="271">
       <c r="P271" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="Q271" t="n">
-        <v>20485</v>
+        <v>20840</v>
       </c>
       <c r="V271" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="W271" t="n">
-        <v>4520</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="272">
       <c r="P272" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="Q272" t="n">
-        <v>20705</v>
+        <v>20940</v>
       </c>
       <c r="V272" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="W272" t="n">
-        <v>4375</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="273">
       <c r="P273" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="Q273" t="n">
-        <v>20605</v>
+        <v>20640</v>
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="W273" t="n">
-        <v>4292</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="274">
       <c r="P274" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="Q274" t="n">
-        <v>20880</v>
+        <v>20485</v>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="W274" t="n">
-        <v>4310</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="275">
       <c r="P275" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="Q275" t="n">
-        <v>20825</v>
+        <v>20705</v>
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="W275" t="n">
-        <v>4275</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="276">
       <c r="P276" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="Q276" t="n">
-        <v>20585</v>
+        <v>20605</v>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="W276" t="n">
-        <v>4225</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="277">
       <c r="P277" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="Q277" t="n">
-        <v>20500</v>
+        <v>20880</v>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="W277" t="n">
-        <v>4152</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="278">
       <c r="P278" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="Q278" t="n">
-        <v>20625</v>
+        <v>20825</v>
       </c>
       <c r="V278" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="W278" t="n">
-        <v>4112</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="279">
       <c r="P279" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="Q279" t="n">
-        <v>20460</v>
+        <v>20585</v>
       </c>
       <c r="V279" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="W279" t="n">
-        <v>4081</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="280">
       <c r="P280" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="Q280" t="n">
-        <v>20455</v>
+        <v>20500</v>
       </c>
       <c r="V280" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="W280" t="n">
-        <v>3990</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="281">
       <c r="P281" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="Q281" t="n">
-        <v>20150</v>
+        <v>20625</v>
       </c>
       <c r="V281" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="W281" t="n">
-        <v>4042</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="282">
       <c r="P282" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="Q282" t="n">
-        <v>20055</v>
+        <v>20460</v>
       </c>
       <c r="V282" t="inlineStr">
         <is>
-          <t>2024/09/19</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="W282" t="n">
-        <v>4052</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="283">
       <c r="P283" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="Q283" t="n">
-        <v>19980</v>
+        <v>20455</v>
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="W283" t="n">
-        <v>3979</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="284">
       <c r="P284" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="Q284" t="n">
-        <v>19740</v>
+        <v>20150</v>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="W284" t="n">
-        <v>3979</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="285">
       <c r="P285" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="Q285" t="n">
-        <v>20070</v>
+        <v>20055</v>
       </c>
       <c r="V285" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="W285" t="n">
-        <v>3895</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="286">
       <c r="P286" t="inlineStr">
         <is>
-          <t>2024/09/19</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="Q286" t="n">
-        <v>20130</v>
+        <v>19980</v>
       </c>
       <c r="V286" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="W286" t="n">
-        <v>3860</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="287">
       <c r="P287" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="Q287" t="n">
-        <v>19875</v>
+        <v>19740</v>
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/19</t>
         </is>
       </c>
       <c r="W287" t="n">
-        <v>3867</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="288">
       <c r="P288" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="Q288" t="n">
-        <v>19745</v>
+        <v>20070</v>
       </c>
       <c r="V288" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="W288" t="n">
-        <v>3885</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="289">
       <c r="P289" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/19</t>
         </is>
       </c>
       <c r="Q289" t="n">
-        <v>19725</v>
+        <v>20130</v>
       </c>
       <c r="V289" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="W289" t="n">
-        <v>3858</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="290">
       <c r="P290" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="Q290" t="n">
-        <v>19450</v>
+        <v>19875</v>
       </c>
       <c r="V290" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="W290" t="n">
-        <v>3856</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="291">
       <c r="P291" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="Q291" t="n">
-        <v>19390</v>
+        <v>19745</v>
       </c>
       <c r="V291" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="W291" t="n">
-        <v>3833</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="292">
       <c r="P292" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="Q292" t="n">
-        <v>19215</v>
+        <v>19725</v>
       </c>
       <c r="V292" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="W292" t="n">
-        <v>3844</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="293">
       <c r="P293" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="Q293" t="n">
-        <v>19310</v>
+        <v>19450</v>
       </c>
       <c r="V293" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="W293" t="n">
-        <v>3895</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="294">
       <c r="P294" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="Q294" t="n">
-        <v>19195</v>
+        <v>19390</v>
       </c>
       <c r="V294" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="W294" t="n">
-        <v>3980</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="295">
       <c r="P295" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="Q295" t="n">
-        <v>19350</v>
+        <v>19215</v>
       </c>
       <c r="V295" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="W295" t="n">
-        <v>3928</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="296">
       <c r="P296" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="Q296" t="n">
-        <v>19500</v>
+        <v>19310</v>
       </c>
       <c r="V296" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="W296" t="n">
-        <v>3927</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="297">
       <c r="P297" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="Q297" t="n">
-        <v>19550</v>
+        <v>19195</v>
       </c>
       <c r="V297" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="W297" t="n">
-        <v>3952</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="298">
       <c r="P298" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="Q298" t="n">
-        <v>19850</v>
+        <v>19350</v>
       </c>
       <c r="V298" t="inlineStr">
         <is>
-          <t>2024/08/26</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="W298" t="n">
-        <v>3909</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="299">
       <c r="P299" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="Q299" t="n">
-        <v>19710</v>
+        <v>19500</v>
       </c>
       <c r="V299" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/08/30</t>
         </is>
       </c>
       <c r="W299" t="n">
-        <v>3940</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="300">
       <c r="P300" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="Q300" t="n">
-        <v>19905</v>
+        <v>19550</v>
       </c>
       <c r="V300" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/08/29</t>
         </is>
       </c>
       <c r="W300" t="n">
-        <v>3976</v>
+        <v>3928</v>
       </c>
     </row>
   </sheetData>
